--- a/visual/timeseries.xlsx
+++ b/visual/timeseries.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AB135CC7-F952-41E2-B091-BC5F18CA9CA0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{167B0E68-9DC3-4725-B015-FBED37012C09}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,8 +83,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -112,8 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1706,13 +1715,13 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1804,16 +1813,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>6.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.21</c:v>
+                  <c:v>10.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.37</c:v>
+                  <c:v>25.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.06</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1905,16 +1914,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15.63</c:v>
+                  <c:v>15.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.42</c:v>
+                  <c:v>13.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.02</c:v>
+                  <c:v>14.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.21</c:v>
+                  <c:v>14.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2006,16 +2015,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25.86</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.07</c:v>
+                  <c:v>24.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.21</c:v>
+                  <c:v>24.79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.51</c:v>
+                  <c:v>24.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2107,16 +2116,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.05</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.24</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84</c:v>
+                  <c:v>1.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2400,16 +2409,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15.63</c:v>
+                  <c:v>15.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.42</c:v>
+                  <c:v>13.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.02</c:v>
+                  <c:v>14.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.21</c:v>
+                  <c:v>14.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2511,16 +2520,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25.86</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.07</c:v>
+                  <c:v>24.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.21</c:v>
+                  <c:v>24.79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.51</c:v>
+                  <c:v>24.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2978,16 +2987,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.05</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.24</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84</c:v>
+                  <c:v>1.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3421,16 +3430,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>6.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.21</c:v>
+                  <c:v>10.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.37</c:v>
+                  <c:v>25.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.06</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7943,10 +7952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G88" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P94" sqref="P94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7964,7 +7973,7 @@
     <col min="14" max="14" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7999,7 +8008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -8022,19 +8031,19 @@
         <v>30</v>
       </c>
       <c r="K2">
-        <v>40</v>
+        <v>6.67</v>
       </c>
       <c r="L2">
-        <v>15.63</v>
+        <v>15.4</v>
       </c>
       <c r="M2">
-        <v>25.86</v>
+        <v>25.5</v>
       </c>
       <c r="N2">
-        <v>1.05</v>
+        <v>0.81</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -8054,22 +8063,22 @@
         <v>2011</v>
       </c>
       <c r="J3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>34.21</v>
+        <v>10.26</v>
       </c>
       <c r="L3">
-        <v>14.42</v>
+        <v>13.26</v>
       </c>
       <c r="M3">
-        <v>24.07</v>
+        <v>24.81</v>
       </c>
       <c r="N3">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8089,22 +8098,22 @@
         <v>2012</v>
       </c>
       <c r="J4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K4">
-        <v>42.37</v>
+        <v>25.86</v>
       </c>
       <c r="L4">
-        <v>14.02</v>
+        <v>14.05</v>
       </c>
       <c r="M4">
-        <v>25.21</v>
+        <v>24.79</v>
       </c>
       <c r="N4">
-        <v>0.84</v>
+        <v>1.01</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -8124,22 +8133,22 @@
         <v>2013</v>
       </c>
       <c r="J5">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K5">
-        <v>7.06</v>
+        <v>11.25</v>
       </c>
       <c r="L5">
-        <v>14.21</v>
+        <v>14.39</v>
       </c>
       <c r="M5">
-        <v>25.51</v>
+        <v>24.98</v>
       </c>
       <c r="N5">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8156,7 +8165,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8173,7 +8182,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -8190,7 +8199,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -8198,15 +8207,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12">
         <v>7.54</v>
       </c>
+      <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -8214,7 +8224,7 @@
         <v>7.93</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -8222,7 +8232,7 @@
         <v>7.98</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -8230,7 +8240,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -8334,10 +8344,10 @@
         <v>2010</v>
       </c>
       <c r="J32">
-        <v>15.63</v>
+        <v>15.4</v>
       </c>
       <c r="K32">
-        <v>25.86</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.25">
@@ -8345,10 +8355,10 @@
         <v>2011</v>
       </c>
       <c r="J33">
-        <v>14.42</v>
+        <v>13.26</v>
       </c>
       <c r="K33">
-        <v>24.07</v>
+        <v>24.81</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.25">
@@ -8356,10 +8366,10 @@
         <v>2012</v>
       </c>
       <c r="J34">
-        <v>14.02</v>
+        <v>14.05</v>
       </c>
       <c r="K34">
-        <v>25.21</v>
+        <v>24.79</v>
       </c>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.25">
@@ -8367,10 +8377,10 @@
         <v>2013</v>
       </c>
       <c r="J35">
-        <v>14.21</v>
+        <v>14.39</v>
       </c>
       <c r="K35">
-        <v>25.51</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="61" spans="9:10" x14ac:dyDescent="0.25">
@@ -8386,7 +8396,7 @@
         <v>2010</v>
       </c>
       <c r="J62">
-        <v>1.05</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="63" spans="9:10" x14ac:dyDescent="0.25">
@@ -8394,7 +8404,7 @@
         <v>2011</v>
       </c>
       <c r="J63">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="64" spans="9:10" x14ac:dyDescent="0.25">
@@ -8402,7 +8412,7 @@
         <v>2012</v>
       </c>
       <c r="J64">
-        <v>0.84</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="65" spans="9:10" x14ac:dyDescent="0.25">
@@ -8410,7 +8420,7 @@
         <v>2013</v>
       </c>
       <c r="J65">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="94" spans="9:10" x14ac:dyDescent="0.25">
@@ -8426,7 +8436,7 @@
         <v>2010</v>
       </c>
       <c r="J95">
-        <v>40</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="96" spans="9:10" x14ac:dyDescent="0.25">
@@ -8434,7 +8444,7 @@
         <v>2011</v>
       </c>
       <c r="J96">
-        <v>34.21</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="97" spans="9:10" x14ac:dyDescent="0.25">
@@ -8442,7 +8452,7 @@
         <v>2012</v>
       </c>
       <c r="J97">
-        <v>42.37</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="98" spans="9:10" x14ac:dyDescent="0.25">
@@ -8450,7 +8460,7 @@
         <v>2013</v>
       </c>
       <c r="J98">
-        <v>7.06</v>
+        <v>11.25</v>
       </c>
     </row>
   </sheetData>
@@ -8458,6 +8468,7 @@
     <sortCondition ref="I2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/visual/timeseries.xlsx
+++ b/visual/timeseries.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{167B0E68-9DC3-4725-B015-FBED37012C09}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EA164F47-22D2-491B-BFFF-1E4027D9DC87}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>Anno Accademico</t>
   </si>
@@ -78,6 +78,12 @@
   <si>
     <t>Ritardo Medio [semestri]</t>
   </si>
+  <si>
+    <t>Val. Media Test Ingresso [norm]</t>
+  </si>
+  <si>
+    <t>Voto Medio Esami di Profitto [norm]</t>
+  </si>
 </sst>
 </file>
 
@@ -120,9 +126,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2328,7 +2335,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valutazione Media Test Ingresso</c:v>
+                  <c:v>Val. Media Test Ingresso [norm]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2406,19 +2413,19 @@
             <c:numRef>
               <c:f>Sheet1!$J$32:$J$35</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15.4</c:v>
+                  <c:v>0.61599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.26</c:v>
+                  <c:v>0.53039999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.05</c:v>
+                  <c:v>0.56200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.39</c:v>
+                  <c:v>0.5756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2439,7 +2446,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Voto Medio</c:v>
+                  <c:v>Voto Medio Esami di Profitto [norm]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2517,19 +2524,19 @@
             <c:numRef>
               <c:f>Sheet1!$K$32:$K$35</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25.5</c:v>
+                  <c:v>0.82258064516129037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.81</c:v>
+                  <c:v>0.80032258064516126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.79</c:v>
+                  <c:v>0.79967741935483871</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.98</c:v>
+                  <c:v>0.80580645161290321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2758,7 +2765,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7954,8 +7961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P94" sqref="P94"/>
+    <sheetView tabSelected="1" topLeftCell="J23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8248,7 +8255,7 @@
         <v>7.94</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -8256,7 +8263,7 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -8264,7 +8271,7 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -8272,7 +8279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -8280,7 +8287,7 @@
         <v>82.14</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -8288,7 +8295,7 @@
         <v>90.68</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -8296,7 +8303,7 @@
         <v>90.55</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -8304,7 +8311,7 @@
         <v>87.17</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -8312,7 +8319,7 @@
         <v>89.36</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -8320,7 +8327,7 @@
         <v>89.94</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -8328,59 +8335,73 @@
         <v>89.34</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I31" t="s">
         <v>8</v>
       </c>
       <c r="J31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K31" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="L31">
+        <v>25</v>
+      </c>
+      <c r="M31">
+        <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I32">
         <v>2010</v>
       </c>
-      <c r="J32">
-        <v>15.4</v>
-      </c>
-      <c r="K32">
-        <v>25.5</v>
+      <c r="J32" s="2">
+        <f>15.4/$L$31</f>
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="K32" s="2">
+        <f>25.5/31</f>
+        <v>0.82258064516129037</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I33">
         <v>2011</v>
       </c>
-      <c r="J33">
-        <v>13.26</v>
-      </c>
-      <c r="K33">
-        <v>24.81</v>
+      <c r="J33" s="2">
+        <f>13.26/25</f>
+        <v>0.53039999999999998</v>
+      </c>
+      <c r="K33" s="2">
+        <f>24.81/31</f>
+        <v>0.80032258064516126</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I34">
         <v>2012</v>
       </c>
-      <c r="J34">
-        <v>14.05</v>
-      </c>
-      <c r="K34">
-        <v>24.79</v>
+      <c r="J34" s="2">
+        <f>14.05/25</f>
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="K34" s="2">
+        <f>24.79/31</f>
+        <v>0.79967741935483871</v>
       </c>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I35">
         <v>2013</v>
       </c>
-      <c r="J35">
-        <v>14.39</v>
-      </c>
-      <c r="K35">
-        <v>24.98</v>
+      <c r="J35" s="2">
+        <f>14.39/25</f>
+        <v>0.5756</v>
+      </c>
+      <c r="K35" s="2">
+        <f>24.98/31</f>
+        <v>0.80580645161290321</v>
       </c>
     </row>
     <row r="61" spans="9:10" x14ac:dyDescent="0.25">
